--- a/Implementación/PD Control de asignaciones Implementacion.xlsx
+++ b/Implementación/PD Control de asignaciones Implementacion.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.ASUS-SANTIAGO\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3AA2AA-4E65-44FC-9922-0B4C16C7478C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="11925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SEMANA 1'!$A$7:$K$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SEMANA 1'!$A$7:$K$76</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -193,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -639,7 +645,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="89">
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -728,12 +734,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,18 +756,12 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,105 +771,105 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -903,7 +897,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -934,7 +928,7 @@
         <xdr:cNvPr id="2" name="Picture 2" descr="http://www.acofi.edu.co/wp-content/uploads/2013/10/UNIVERSIDAD-PILOTO-DE-COLOMBIA.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -985,7 +979,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1068,7 +1062,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1101,9 +1095,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1136,6 +1147,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1311,89 +1339,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="69.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27" style="5" customWidth="1"/>
     <col min="4" max="4" width="17" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="33.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75"/>
-      <c r="B1" s="77" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60"/>
+      <c r="B1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="82"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="65"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="87" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="85" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="86"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1401,23 +1430,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+    <row r="5" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -1442,11 +1471,11 @@
       <c r="H7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70"/>
+      <c r="I7" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86"/>
     </row>
     <row r="8" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -1473,11 +1502,11 @@
       <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+    </row>
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>42</v>
       </c>
@@ -1502,11 +1531,11 @@
       <c r="H9" s="13">
         <v>0</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+    </row>
+    <row r="10" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>42</v>
       </c>
@@ -1531,11 +1560,11 @@
       <c r="H10" s="13">
         <v>0</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+    </row>
+    <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>42</v>
       </c>
@@ -1560,11 +1589,11 @@
       <c r="H11" s="13">
         <v>0</v>
       </c>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-    </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+    </row>
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>42</v>
       </c>
@@ -1589,11 +1618,11 @@
       <c r="H12" s="13">
         <v>0</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+    </row>
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -1618,11 +1647,11 @@
       <c r="H13" s="13">
         <v>0</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-    </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+    </row>
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
@@ -1647,11 +1676,11 @@
       <c r="H14" s="13">
         <v>0</v>
       </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
-    </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+    </row>
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>12</v>
       </c>
@@ -1676,11 +1705,11 @@
       <c r="H15" s="40">
         <v>0</v>
       </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
-    </row>
-    <row r="16" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="78"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
+    </row>
+    <row r="16" spans="1:11" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
@@ -1705,11 +1734,11 @@
       <c r="H16" s="13">
         <v>0</v>
       </c>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
-    </row>
-    <row r="17" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
+    </row>
+    <row r="17" spans="1:11" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
@@ -1763,11 +1792,11 @@
       <c r="H18" s="13">
         <v>0</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
-    </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
+    </row>
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
@@ -1790,11 +1819,11 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="H19" s="13"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="78"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+    </row>
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
@@ -1819,11 +1848,11 @@
       <c r="H20" s="13">
         <v>0</v>
       </c>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="80"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
@@ -1852,7 +1881,7 @@
       <c r="J21" s="34"/>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>45</v>
       </c>
@@ -1906,11 +1935,11 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-    </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+    </row>
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
@@ -1935,11 +1964,11 @@
       <c r="H24" s="13">
         <v>0</v>
       </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-    </row>
-    <row r="25" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+    </row>
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>46</v>
       </c>
@@ -1964,11 +1993,11 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-    </row>
-    <row r="26" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+    </row>
+    <row r="26" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>46</v>
       </c>
@@ -1993,11 +2022,11 @@
       <c r="H26" s="13">
         <v>0</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-    </row>
-    <row r="27" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="27" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>46</v>
       </c>
@@ -2022,11 +2051,11 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-    </row>
-    <row r="28" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+    </row>
+    <row r="28" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
@@ -2051,12 +2080,12 @@
       <c r="H28" s="13">
         <v>0</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
     </row>
     <row r="29" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -2071,15 +2100,21 @@
       <c r="E29" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67"/>
-    </row>
-    <row r="30" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
+      <c r="F29" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="78"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="80"/>
+    </row>
+    <row r="30" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -2094,15 +2129,21 @@
       <c r="E30" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="48"/>
-    </row>
-    <row r="31" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
+      <c r="F30" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
+    </row>
+    <row r="31" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -2117,15 +2158,21 @@
       <c r="E31" s="12">
         <v>0.70833333333333304</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
-    </row>
-    <row r="32" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
+      <c r="F31" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="46"/>
+    </row>
+    <row r="32" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -2140,15 +2187,21 @@
       <c r="E32" s="12">
         <v>0.70833333333333304</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="48"/>
-    </row>
-    <row r="33" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
+      <c r="F32" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="46"/>
+    </row>
+    <row r="33" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -2163,15 +2216,21 @@
       <c r="E33" s="12">
         <v>0.70833333333333304</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="48"/>
-    </row>
-    <row r="34" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49" t="s">
+      <c r="F33" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
+    </row>
+    <row r="34" spans="1:11" s="14" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -2186,14 +2245,20 @@
       <c r="E34" s="12">
         <v>0.70833333333333304</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48"/>
-    </row>
-    <row r="35" spans="1:11" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+    </row>
+    <row r="35" spans="1:11" s="14" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>48</v>
       </c>
@@ -2209,14 +2274,20 @@
       <c r="E35" s="12">
         <v>0.75</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
-    </row>
-    <row r="36" spans="1:11" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+    </row>
+    <row r="36" spans="1:11" s="14" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>48</v>
       </c>
@@ -2232,14 +2303,20 @@
       <c r="E36" s="12">
         <v>0.75</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
-    </row>
-    <row r="37" spans="1:11" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H36" s="40">
+        <v>0</v>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="46"/>
+    </row>
+    <row r="37" spans="1:11" s="14" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>49</v>
       </c>
@@ -2255,14 +2332,20 @@
       <c r="E37" s="12">
         <v>0.75</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>49</v>
       </c>
@@ -2278,14 +2361,20 @@
       <c r="E38" s="12">
         <v>0.75</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="46"/>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>50</v>
       </c>
@@ -2301,14 +2390,20 @@
       <c r="E39" s="12">
         <v>0.75</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="48"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F39" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>50</v>
       </c>
@@ -2324,14 +2419,18 @@
       <c r="E40" s="12">
         <v>0.75</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="48"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F40" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>51</v>
       </c>
@@ -2347,14 +2446,20 @@
       <c r="E41" s="12">
         <v>0.75</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="48"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F41" s="11">
+        <v>43177</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>51</v>
       </c>
@@ -2364,20 +2469,26 @@
       <c r="C42" s="17">
         <v>360</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="48">
         <v>43177</v>
       </c>
       <c r="E42" s="12">
         <v>0.75</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="48"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F42" s="48">
+        <v>43177</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="44"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="46"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>52</v>
       </c>
@@ -2387,20 +2498,26 @@
       <c r="C43" s="41">
         <v>60</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="48">
         <v>43178</v>
       </c>
       <c r="E43" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="48"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F43" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="44"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="46"/>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>52</v>
       </c>
@@ -2410,20 +2527,26 @@
       <c r="C44" s="41">
         <v>60</v>
       </c>
-      <c r="D44" s="50">
+      <c r="D44" s="48">
         <v>43178</v>
       </c>
       <c r="E44" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="48"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F44" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="44"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="46"/>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>52</v>
       </c>
@@ -2433,20 +2556,26 @@
       <c r="C45" s="41">
         <v>60</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="48">
         <v>43178</v>
       </c>
       <c r="E45" s="12">
         <v>0.70833333333333304</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="48"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F45" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="44"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="46"/>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>52</v>
       </c>
@@ -2456,20 +2585,26 @@
       <c r="C46" s="41">
         <v>60</v>
       </c>
-      <c r="D46" s="50">
+      <c r="D46" s="48">
         <v>43178</v>
       </c>
       <c r="E46" s="12">
         <v>0.70833333333333304</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="48"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F46" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="44"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="46"/>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>52</v>
       </c>
@@ -2479,20 +2614,26 @@
       <c r="C47" s="41">
         <v>60</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="48">
         <v>43178</v>
       </c>
       <c r="E47" s="12">
         <v>0.70833333333333304</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="48"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F47" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="46"/>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>52</v>
       </c>
@@ -2502,20 +2643,26 @@
       <c r="C48" s="41">
         <v>60</v>
       </c>
-      <c r="D48" s="50">
+      <c r="D48" s="48">
         <v>43178</v>
       </c>
       <c r="E48" s="12">
         <v>0.70833333333333304</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="48"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F48" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="44"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="46"/>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>53</v>
       </c>
@@ -2525,20 +2672,26 @@
       <c r="C49" s="17">
         <v>360</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="48">
         <v>43178</v>
       </c>
       <c r="E49" s="12">
         <v>0.75</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="48"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F49" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="44"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="46"/>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>53</v>
       </c>
@@ -2548,19 +2701,25 @@
       <c r="C50" s="17">
         <v>360</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="48">
         <v>43178</v>
       </c>
       <c r="E50" s="12">
         <v>0.75</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="47"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F50" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="44"/>
+      <c r="J50" s="45"/>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>54</v>
       </c>
@@ -2570,20 +2729,26 @@
       <c r="C51" s="17">
         <v>360</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="48">
         <v>43178</v>
       </c>
       <c r="E51" s="12">
         <v>0.75</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="48"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F51" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="44"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="46"/>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>54</v>
       </c>
@@ -2593,20 +2758,26 @@
       <c r="C52" s="17">
         <v>360</v>
       </c>
-      <c r="D52" s="50">
+      <c r="D52" s="48">
         <v>43178</v>
       </c>
       <c r="E52" s="12">
         <v>0.75</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="48"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F52" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="44"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="46"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>55</v>
       </c>
@@ -2616,20 +2787,26 @@
       <c r="C53" s="17">
         <v>360</v>
       </c>
-      <c r="D53" s="50">
+      <c r="D53" s="48">
         <v>43178</v>
       </c>
       <c r="E53" s="12">
         <v>0.75</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="48"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F53" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="44"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="46"/>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>55</v>
       </c>
@@ -2639,20 +2816,26 @@
       <c r="C54" s="17">
         <v>360</v>
       </c>
-      <c r="D54" s="50">
+      <c r="D54" s="48">
         <v>43178</v>
       </c>
       <c r="E54" s="12">
         <v>0.75</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="48"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F54" s="48">
+        <v>43178</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="44"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="46"/>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>56</v>
       </c>
@@ -2662,20 +2845,26 @@
       <c r="C55" s="41">
         <v>60</v>
       </c>
-      <c r="D55" s="52">
+      <c r="D55" s="50">
         <v>43179</v>
       </c>
       <c r="E55" s="12">
         <v>0.75</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="48"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F55" s="50">
+        <v>43179</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="44"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="46"/>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>56</v>
       </c>
@@ -2685,20 +2874,26 @@
       <c r="C56" s="41">
         <v>60</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="49">
         <v>43179</v>
       </c>
       <c r="E56" s="12">
         <v>0.75</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="48"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F56" s="49">
+        <v>43179</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="44"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="46"/>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>56</v>
       </c>
@@ -2708,20 +2903,26 @@
       <c r="C57" s="41">
         <v>60</v>
       </c>
-      <c r="D57" s="52">
+      <c r="D57" s="50">
         <v>43179</v>
       </c>
       <c r="E57" s="12">
         <v>0.75</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="48"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F57" s="50">
+        <v>43179</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H57" s="40">
+        <v>0</v>
+      </c>
+      <c r="I57" s="44"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="46"/>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>56</v>
       </c>
@@ -2731,20 +2932,26 @@
       <c r="C58" s="41">
         <v>60</v>
       </c>
-      <c r="D58" s="51">
+      <c r="D58" s="49">
         <v>43179</v>
       </c>
       <c r="E58" s="12">
         <v>0.75</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="48"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F58" s="49">
+        <v>43179</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="44"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>56</v>
       </c>
@@ -2754,21 +2961,27 @@
       <c r="C59" s="41">
         <v>60</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="50">
         <v>43179</v>
       </c>
       <c r="E59" s="12">
         <v>0.75</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="48"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="53" t="s">
+      <c r="F59" s="50">
+        <v>43179</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+      <c r="I59" s="44"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="46"/>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="51" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -2777,20 +2990,26 @@
       <c r="C60" s="41">
         <v>60</v>
       </c>
-      <c r="D60" s="55">
+      <c r="D60" s="52">
         <v>43179</v>
       </c>
-      <c r="E60" s="56">
-        <v>0.75</v>
-      </c>
-      <c r="F60" s="54"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="60"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E60" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F60" s="52">
+        <v>43179</v>
+      </c>
+      <c r="G60" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
+      <c r="I60" s="54"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="56"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>28</v>
       </c>
@@ -2806,16 +3025,20 @@
       <c r="E61" s="12">
         <v>0.875</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="40">
-        <v>0</v>
-      </c>
-      <c r="I61" s="46"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="48"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F61" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="H61" s="13">
+        <v>0</v>
+      </c>
+      <c r="I61" s="44"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>28</v>
       </c>
@@ -2831,16 +3054,20 @@
       <c r="E62" s="12">
         <v>0.875</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
+      <c r="F62" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0.875</v>
+      </c>
       <c r="H62" s="13">
         <v>0</v>
       </c>
-      <c r="I62" s="46"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="48"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I62" s="44"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="46"/>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>28</v>
       </c>
@@ -2856,16 +3083,20 @@
       <c r="E63" s="12">
         <v>0.875</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
+      <c r="F63" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0.875</v>
+      </c>
       <c r="H63" s="13">
         <v>0</v>
       </c>
-      <c r="I63" s="46"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="48"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="44"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="46"/>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>28</v>
       </c>
@@ -2881,16 +3112,20 @@
       <c r="E64" s="12">
         <v>0.875</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12"/>
+      <c r="F64" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0.875</v>
+      </c>
       <c r="H64" s="13">
         <v>0</v>
       </c>
-      <c r="I64" s="46"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="48"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I64" s="44"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="46"/>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>28</v>
       </c>
@@ -2906,16 +3141,20 @@
       <c r="E65" s="12">
         <v>0.875</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
+      <c r="F65" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G65" s="12">
+        <v>0.875</v>
+      </c>
       <c r="H65" s="13">
         <v>0</v>
       </c>
-      <c r="I65" s="46"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="48"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I65" s="44"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="46"/>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>28</v>
       </c>
@@ -2931,16 +3170,20 @@
       <c r="E66" s="12">
         <v>0.875</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
+      <c r="F66" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0.875</v>
+      </c>
       <c r="H66" s="13">
         <v>0</v>
       </c>
-      <c r="I66" s="46"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="48"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I66" s="44"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="46"/>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>29</v>
       </c>
@@ -2956,16 +3199,20 @@
       <c r="E67" s="12">
         <v>0.88541666666666663</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="12"/>
+      <c r="F67" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G67" s="12">
+        <v>0.88541666666666663</v>
+      </c>
       <c r="H67" s="13">
         <v>0</v>
       </c>
-      <c r="I67" s="46"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="48"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I67" s="44"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="46"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>30</v>
       </c>
@@ -2981,16 +3228,20 @@
       <c r="E68" s="12">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
+      <c r="F68" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G68" s="12">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="H68" s="13">
         <v>0</v>
       </c>
-      <c r="I68" s="46"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="48"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I68" s="44"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="46"/>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>30</v>
       </c>
@@ -3006,16 +3257,20 @@
       <c r="E69" s="12">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
+      <c r="F69" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G69" s="12">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="H69" s="13">
         <v>0</v>
       </c>
-      <c r="I69" s="46"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="48"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I69" s="44"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="46"/>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>30</v>
       </c>
@@ -3031,16 +3286,20 @@
       <c r="E70" s="12">
         <v>0.89583333333333304</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12"/>
+      <c r="F70" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G70" s="12">
+        <v>0.89583333333333304</v>
+      </c>
       <c r="H70" s="13">
         <v>0</v>
       </c>
-      <c r="I70" s="46"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="48"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I70" s="44"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="46"/>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>30</v>
       </c>
@@ -3056,16 +3315,20 @@
       <c r="E71" s="12">
         <v>0.89583333333333304</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="12"/>
+      <c r="F71" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G71" s="12">
+        <v>0.89583333333333304</v>
+      </c>
       <c r="H71" s="13">
         <v>0</v>
       </c>
-      <c r="I71" s="46"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="48"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I71" s="44"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="46"/>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>30</v>
       </c>
@@ -3081,16 +3344,20 @@
       <c r="E72" s="12">
         <v>0.89583333333333304</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
+      <c r="F72" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0.89583333333333304</v>
+      </c>
       <c r="H72" s="13">
         <v>0</v>
       </c>
-      <c r="I72" s="46"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="48"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I72" s="44"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="46"/>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>30</v>
       </c>
@@ -3106,16 +3373,20 @@
       <c r="E73" s="12">
         <v>0.89583333333333304</v>
       </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
+      <c r="F73" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0.89583333333333304</v>
+      </c>
       <c r="H73" s="13">
         <v>0</v>
       </c>
-      <c r="I73" s="46"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="48"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I73" s="44"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="46"/>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>31</v>
       </c>
@@ -3131,16 +3402,20 @@
       <c r="E74" s="12">
         <v>0.90625</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
+      <c r="F74" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G74" s="12">
+        <v>0.90625</v>
+      </c>
       <c r="H74" s="13">
         <v>0</v>
       </c>
-      <c r="I74" s="46"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="48"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I74" s="44"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="46"/>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>32</v>
       </c>
@@ -3156,16 +3431,20 @@
       <c r="E75" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12"/>
+      <c r="F75" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G75" s="12">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="H75" s="13">
         <v>0</v>
       </c>
-      <c r="I75" s="46"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="48"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I75" s="44"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="46"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>33</v>
       </c>
@@ -3181,74 +3460,78 @@
       <c r="E76" s="12">
         <v>0.9375</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12"/>
+      <c r="F76" s="11">
+        <v>43180</v>
+      </c>
+      <c r="G76" s="12">
+        <v>0.9375</v>
+      </c>
       <c r="H76" s="13">
         <v>0</v>
       </c>
-      <c r="I76" s="65"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="67"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I76" s="78"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="80"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K79" s="18"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K87" s="21"/>
     </row>
-    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="71" t="s">
+      <c r="D99" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="71"/>
+      <c r="E99" s="81"/>
       <c r="F99" s="23"/>
       <c r="G99" s="24"/>
       <c r="H99" s="1" t="s">
@@ -3257,135 +3540,177 @@
       <c r="I99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J99" s="71" t="s">
+      <c r="J99" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="K99" s="71"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="81"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="39"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="62"/>
+      <c r="C100" s="39">
+        <v>12</v>
+      </c>
+      <c r="D100" s="82">
+        <f>C8+C18+C23+C29+C39+C41+C43+C53+C61+C59+C68+C76</f>
+        <v>1385</v>
+      </c>
+      <c r="E100" s="83"/>
       <c r="F100" s="28"/>
       <c r="G100" s="29"/>
       <c r="H100" s="27" t="s">
         <v>22</v>
       </c>
       <c r="I100" s="39">
-        <v>9</v>
-      </c>
-      <c r="J100" s="61"/>
-      <c r="K100" s="62"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="J100" s="82">
+        <v>1390</v>
+      </c>
+      <c r="K100" s="83"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="39"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="62"/>
+      <c r="C101" s="39">
+        <v>13</v>
+      </c>
+      <c r="D101" s="82">
+        <f>C9+C17+C15+C24+C30+C40+C42+C44+C54+C62+C69+C75</f>
+        <v>1350</v>
+      </c>
+      <c r="E101" s="83"/>
       <c r="F101" s="28"/>
       <c r="G101" s="29"/>
       <c r="H101" s="27" t="s">
         <v>23</v>
       </c>
       <c r="I101" s="39">
-        <v>10</v>
-      </c>
-      <c r="J101" s="61"/>
-      <c r="K101" s="62"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J101" s="82">
+        <v>1400</v>
+      </c>
+      <c r="K101" s="83"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="39"/>
-      <c r="D102" s="61"/>
-      <c r="E102" s="62"/>
+      <c r="C102" s="39">
+        <v>13</v>
+      </c>
+      <c r="D102" s="82">
+        <f>C74+C73+C66+C67+C55+C49+C48+C35+C34+C28+C20+C14+C13</f>
+        <v>1050</v>
+      </c>
+      <c r="E102" s="83"/>
       <c r="F102" s="28"/>
       <c r="G102" s="29"/>
       <c r="H102" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I102" s="39">
-        <v>11</v>
-      </c>
-      <c r="J102" s="61"/>
-      <c r="K102" s="62"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J102" s="82">
+        <v>1100</v>
+      </c>
+      <c r="K102" s="83"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="39"/>
-      <c r="D103" s="61"/>
-      <c r="E103" s="62"/>
+      <c r="C103" s="39">
+        <v>10</v>
+      </c>
+      <c r="D103" s="82">
+        <f>C12+C19+C27+C33+C36+C47+C50+C56+C65+C72</f>
+        <v>1015</v>
+      </c>
+      <c r="E103" s="83"/>
       <c r="F103" s="28"/>
       <c r="G103" s="29"/>
       <c r="H103" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I103" s="39">
-        <v>8</v>
-      </c>
-      <c r="J103" s="61"/>
-      <c r="K103" s="62"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J103" s="82">
+        <v>1070</v>
+      </c>
+      <c r="K103" s="83"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="39"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="45"/>
+      <c r="C104" s="39">
+        <v>11</v>
+      </c>
+      <c r="D104" s="82">
+        <f>C11+C16+C21+C26+C32+C38+C46+C58+C52+C64+C71</f>
+        <v>1030</v>
+      </c>
+      <c r="E104" s="83"/>
       <c r="F104" s="28"/>
       <c r="G104" s="30"/>
       <c r="H104" s="39" t="s">
         <v>26</v>
       </c>
       <c r="I104" s="39">
-        <v>9</v>
-      </c>
-      <c r="J104" s="44"/>
-      <c r="K104" s="45"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="J104" s="82">
+        <v>1100</v>
+      </c>
+      <c r="K104" s="83"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="39"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="45"/>
+      <c r="C105" s="39">
+        <v>10</v>
+      </c>
+      <c r="D105" s="82">
+        <f>C10+C22+C31+C25+C37+C45+C51+C57+C63+C70</f>
+        <v>1015</v>
+      </c>
+      <c r="E105" s="83"/>
       <c r="F105" s="28"/>
       <c r="G105" s="29"/>
       <c r="H105" s="31" t="s">
         <v>27</v>
       </c>
       <c r="I105" s="39">
-        <v>8</v>
-      </c>
-      <c r="J105" s="44"/>
-      <c r="K105" s="45"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J105" s="82">
+        <v>1000</v>
+      </c>
+      <c r="K105" s="83"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G106" s="5"/>
       <c r="I106" s="6"/>
       <c r="J106" s="7"/>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="63" t="s">
+      <c r="D107" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="E107" s="64"/>
+      <c r="E107" s="88"/>
       <c r="F107" s="1" t="s">
         <v>39</v>
       </c>
@@ -3398,170 +3723,194 @@
       <c r="I107" s="8"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C108" s="39">
-        <v>9</v>
-      </c>
-      <c r="D108" s="61">
-        <v>150</v>
-      </c>
-      <c r="E108" s="62"/>
+        <v>12</v>
+      </c>
+      <c r="D108" s="82">
+        <v>1385</v>
+      </c>
+      <c r="E108" s="83"/>
       <c r="F108" s="42">
-        <v>160</v>
+        <v>1390</v>
       </c>
       <c r="G108" s="43">
         <f>D108-F108</f>
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="H108" s="32">
         <f>G108/D108</f>
-        <v>-6.6666666666666666E-2</v>
+        <v>-3.6101083032490976E-3</v>
       </c>
       <c r="I108" s="8"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C109" s="39">
-        <v>11</v>
-      </c>
-      <c r="D109" s="61">
-        <v>175</v>
-      </c>
-      <c r="E109" s="62"/>
+        <v>13</v>
+      </c>
+      <c r="D109" s="82">
+        <v>1350</v>
+      </c>
+      <c r="E109" s="83"/>
       <c r="F109" s="42">
-        <v>170</v>
+        <v>1400</v>
       </c>
       <c r="G109" s="43">
         <f t="shared" ref="G109:G113" si="0">D109-F109</f>
-        <v>5</v>
+        <v>-50</v>
       </c>
       <c r="H109" s="32">
         <f t="shared" ref="H109:H113" si="1">G109/D109</f>
-        <v>2.8571428571428571E-2</v>
+        <v>-3.7037037037037035E-2</v>
       </c>
       <c r="I109" s="8"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C110" s="39">
-        <v>11</v>
-      </c>
-      <c r="D110" s="61">
-        <v>165</v>
-      </c>
-      <c r="E110" s="62"/>
+        <v>13</v>
+      </c>
+      <c r="D110" s="82">
+        <v>1050</v>
+      </c>
+      <c r="E110" s="83"/>
       <c r="F110" s="42">
-        <v>175</v>
+        <v>1100</v>
       </c>
       <c r="G110" s="43">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="H110" s="32">
         <f t="shared" si="1"/>
-        <v>-6.0606060606060608E-2</v>
+        <v>-4.7619047619047616E-2</v>
       </c>
       <c r="I110" s="8"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C111" s="39">
-        <v>8</v>
-      </c>
-      <c r="D111" s="61">
-        <v>140</v>
-      </c>
-      <c r="E111" s="62"/>
+        <v>10</v>
+      </c>
+      <c r="D111" s="82">
+        <v>1015</v>
+      </c>
+      <c r="E111" s="83"/>
       <c r="F111" s="42">
-        <v>135</v>
+        <v>1070</v>
       </c>
       <c r="G111" s="43">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-55</v>
       </c>
       <c r="H111" s="32">
         <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
+        <v>-5.4187192118226604E-2</v>
       </c>
       <c r="I111" s="8"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C112" s="39">
-        <v>9</v>
-      </c>
-      <c r="D112" s="61">
-        <v>185</v>
-      </c>
-      <c r="E112" s="62"/>
+        <v>11</v>
+      </c>
+      <c r="D112" s="82">
+        <v>1030</v>
+      </c>
+      <c r="E112" s="83"/>
       <c r="F112" s="42">
-        <v>190</v>
+        <v>1100</v>
       </c>
       <c r="G112" s="43">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-70</v>
       </c>
       <c r="H112" s="32">
         <f t="shared" si="1"/>
-        <v>-2.7027027027027029E-2</v>
+        <v>-6.7961165048543687E-2</v>
       </c>
       <c r="I112" s="8"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C113" s="39">
-        <v>8</v>
-      </c>
-      <c r="D113" s="61">
-        <v>140</v>
-      </c>
-      <c r="E113" s="62"/>
+        <v>10</v>
+      </c>
+      <c r="D113" s="82">
+        <v>1015</v>
+      </c>
+      <c r="E113" s="83"/>
       <c r="F113" s="42">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G113" s="43">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="H113" s="32">
         <f t="shared" si="1"/>
-        <v>-7.1428571428571425E-2</v>
+        <v>1.4778325123152709E-2</v>
       </c>
       <c r="I113" s="8"/>
       <c r="K113" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:K7">
+  <autoFilter ref="A7:K76" xr:uid="{89F50651-6EE7-4A37-93BD-25683F244071}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="LE"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
-  <mergeCells count="40">
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="B3:E4"/>
+  <mergeCells count="44">
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I11:K11"/>
@@ -3571,29 +3920,14 @@
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="B3:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
